--- a/data/9-29-19_data/Team-2019-09-29-mod.xlsx
+++ b/data/9-29-19_data/Team-2019-09-29-mod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\9-29-19_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A66B9-C607-4C56-AD45-992002D60D5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3171812B-D7C4-4441-A9EC-EA852EAB2755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="1365" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -465,11 +465,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,62 +1818,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94">
-        <v>7</v>
-      </c>
-      <c r="E94">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95">
-        <v>7</v>
-      </c>
-      <c r="E95">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>7</v>
-      </c>
-      <c r="E96">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97">
-        <v>7</v>
-      </c>
-      <c r="E97">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
